--- a/pred_ohlcv/54_21/2020-01-25 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 STEEM ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-41643.33776715</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-46643.33776715</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-54748.33776715</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-60226.12776715</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-60066.95326715</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-99342.67326715001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-100888.40896715</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-100940.40896715</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-57208.93386715001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-67208.93346715001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-56085.19806715001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-55389.94406715001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-55362.98406715001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-55359.98406715001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-60428.61006715001</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-59998.01006715001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-61950.71106715001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-67692.88906715001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-64843.19376715001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-61603.19376715001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-58239.37276715002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-65174.37276715002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-64071.37376715001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-62405.74496715001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-60623.70326715001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-65464.13256715001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65461.13256715001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-66561.13256715001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-76543.07896715001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-75917.77076715001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-211528.99481324</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-212033.53281324</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-206443.9719461</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-200829.1082461</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-201829.1082461</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-199329.1082461</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 STEEM ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-41643.33776715</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-46643.33776715</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-54748.33776715</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-60226.12776715</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-60066.95326715</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-99342.67326715001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-98840.67326715001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-99012.84696715001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-100888.40896715</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-100940.40896715</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-57208.93386715001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-67208.93346715001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-52820.84056715001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-55700.84056715001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-56085.19806715001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-58745.19806715001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-51745.19806715001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-49043.80076715001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-43091.12126715001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-55389.94406715001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-55362.98406715001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-55359.98406715001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-56984.98406715001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-61950.71106715001</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-67692.88906715001</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-69399.56466715001</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-64843.19376715001</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-58051.75876715002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-58239.37276715002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-65174.37276715002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-64071.37376715001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-62405.74496715001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-60623.70326715001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-60620.70326715001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-65464.13256715001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65461.13256715001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-66561.13256715001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-76543.07896715001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-75917.77076715001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-80845.82556715001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-211528.99481324</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-212115.53281324</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-212112.53281324</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-212033.53281324</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-206443.9719461</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-208501.8881461</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-202912.3273461</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-202720.8872461</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-202717.8872461</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-200879.7046461</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-200882.7046461</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-200829.1082461</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-201829.1082461</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-199329.1082461</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
